--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gal-Galr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gal-Galr2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.725159666666666</v>
+        <v>3.848913</v>
       </c>
       <c r="H2">
-        <v>14.175479</v>
+        <v>11.546739</v>
       </c>
       <c r="I2">
-        <v>0.1172822960752866</v>
+        <v>0.06326406980171845</v>
       </c>
       <c r="J2">
-        <v>0.1616684039777957</v>
+        <v>0.09008253024181492</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.3296756666666666</v>
+        <v>0.07958866666666667</v>
       </c>
       <c r="N2">
-        <v>0.989027</v>
+        <v>0.238766</v>
       </c>
       <c r="O2">
-        <v>0.1973398752343222</v>
+        <v>0.04184197131787069</v>
       </c>
       <c r="P2">
-        <v>0.2076175725739006</v>
+        <v>0.04586906398031883</v>
       </c>
       <c r="Q2">
-        <v>1.557770163214778</v>
+        <v>0.306329853786</v>
       </c>
       <c r="R2">
-        <v>14.019931468933</v>
+        <v>2.756968684074</v>
       </c>
       <c r="S2">
-        <v>0.02314447367469189</v>
+        <v>0.002647093394095273</v>
       </c>
       <c r="T2">
-        <v>0.03356520159576667</v>
+        <v>0.004132001343170814</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.725159666666666</v>
+        <v>3.848913</v>
       </c>
       <c r="H3">
-        <v>14.175479</v>
+        <v>11.546739</v>
       </c>
       <c r="I3">
-        <v>0.1172822960752866</v>
+        <v>0.06326406980171845</v>
       </c>
       <c r="J3">
-        <v>0.1616684039777957</v>
+        <v>0.09008253024181492</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.5017510000000001</v>
+        <v>0.5017509999999999</v>
       </c>
       <c r="N3">
         <v>1.505253</v>
       </c>
       <c r="O3">
-        <v>0.3003420930026069</v>
+        <v>0.2637844284870492</v>
       </c>
       <c r="P3">
-        <v>0.3159842693572386</v>
+        <v>0.2891724372966287</v>
       </c>
       <c r="Q3">
-        <v>2.370853587909667</v>
+        <v>1.931195946663</v>
       </c>
       <c r="R3">
-        <v>21.337682291187</v>
+        <v>17.380763519967</v>
       </c>
       <c r="S3">
-        <v>0.035224810275403</v>
+        <v>0.01668807649641109</v>
       </c>
       <c r="T3">
-        <v>0.05108467250907466</v>
+        <v>0.02604938482787289</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4.725159666666666</v>
+        <v>3.848913</v>
       </c>
       <c r="H4">
-        <v>14.175479</v>
+        <v>11.546739</v>
       </c>
       <c r="I4">
-        <v>0.1172822960752866</v>
+        <v>0.06326406980171845</v>
       </c>
       <c r="J4">
-        <v>0.1616684039777957</v>
+        <v>0.09008253024181492</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.203121</v>
+        <v>0.14649</v>
       </c>
       <c r="N4">
-        <v>0.609363</v>
+        <v>0.43947</v>
       </c>
       <c r="O4">
-        <v>0.1215857791469922</v>
+        <v>0.0770138593227873</v>
       </c>
       <c r="P4">
-        <v>0.1279181123228686</v>
+        <v>0.08442608054509737</v>
       </c>
       <c r="Q4">
-        <v>0.959779156653</v>
+        <v>0.5638272653699999</v>
       </c>
       <c r="R4">
-        <v>8.638012409877</v>
+        <v>5.07444538833</v>
       </c>
       <c r="S4">
-        <v>0.01425985934846195</v>
+        <v>0.00487221017189654</v>
       </c>
       <c r="T4">
-        <v>0.02068031705909057</v>
+        <v>0.007605314953901637</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>4.725159666666666</v>
+        <v>3.848913</v>
       </c>
       <c r="H5">
-        <v>14.175479</v>
+        <v>11.546739</v>
       </c>
       <c r="I5">
-        <v>0.1172822960752866</v>
+        <v>0.06326406980171845</v>
       </c>
       <c r="J5">
-        <v>0.1616684039777957</v>
+        <v>0.09008253024181492</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.248099</v>
+        <v>0.5009935</v>
       </c>
       <c r="N5">
-        <v>0.496198</v>
+        <v>1.001987</v>
       </c>
       <c r="O5">
-        <v>0.1485090671106859</v>
+        <v>0.2633861897100883</v>
       </c>
       <c r="P5">
-        <v>0.1041623982722659</v>
+        <v>0.1924905799420676</v>
       </c>
       <c r="Q5">
-        <v>1.172307388140333</v>
+        <v>1.9282803950655</v>
       </c>
       <c r="R5">
-        <v>7.033844328841999</v>
+        <v>11.569682370393</v>
       </c>
       <c r="S5">
-        <v>0.01741748437874007</v>
+        <v>0.01666288229062769</v>
       </c>
       <c r="T5">
-        <v>0.01683976868317673</v>
+        <v>0.0173400384888958</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.848913</v>
+      </c>
+      <c r="H6">
+        <v>11.546739</v>
+      </c>
+      <c r="I6">
+        <v>0.06326406980171845</v>
+      </c>
+      <c r="J6">
+        <v>0.09008253024181492</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>4.725159666666666</v>
-      </c>
-      <c r="H6">
-        <v>14.175479</v>
-      </c>
-      <c r="I6">
-        <v>0.1172822960752866</v>
-      </c>
-      <c r="J6">
-        <v>0.1616684039777957</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0.3879516666666666</v>
+        <v>0.6733020000000001</v>
       </c>
       <c r="N6">
-        <v>1.163855</v>
+        <v>2.019906</v>
       </c>
       <c r="O6">
-        <v>0.2322231855053928</v>
+        <v>0.3539735511622045</v>
       </c>
       <c r="P6">
-        <v>0.2443176474737262</v>
+        <v>0.3880418382358874</v>
       </c>
       <c r="Q6">
-        <v>1.833133567949444</v>
+        <v>2.591480820726</v>
       </c>
       <c r="R6">
-        <v>16.498202111545</v>
+        <v>23.323327386534</v>
       </c>
       <c r="S6">
-        <v>0.02723566839798967</v>
+        <v>0.02239380744868786</v>
       </c>
       <c r="T6">
-        <v>0.03949844413068704</v>
+        <v>0.03495579062797378</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>2.761635</v>
       </c>
       <c r="I7">
-        <v>0.02284867366541012</v>
+        <v>0.01513087542784753</v>
       </c>
       <c r="J7">
-        <v>0.03149587557635405</v>
+        <v>0.02154504994045112</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.3296756666666666</v>
+        <v>0.07958866666666667</v>
       </c>
       <c r="N7">
-        <v>0.989027</v>
+        <v>0.238766</v>
       </c>
       <c r="O7">
-        <v>0.1973398752343222</v>
+        <v>0.04184197131787069</v>
       </c>
       <c r="P7">
-        <v>0.2076175725739006</v>
+        <v>0.04586906398031883</v>
       </c>
       <c r="Q7">
-        <v>0.3034812865716667</v>
+        <v>0.07326494915666668</v>
       </c>
       <c r="R7">
-        <v>2.731331579145</v>
+        <v>0.65938454241</v>
       </c>
       <c r="S7">
-        <v>0.004508954410401776</v>
+        <v>0.0006331056556662709</v>
       </c>
       <c r="T7">
-        <v>0.00653909723325223</v>
+        <v>0.0009882512741777167</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.761635</v>
       </c>
       <c r="I8">
-        <v>0.02284867366541012</v>
+        <v>0.01513087542784753</v>
       </c>
       <c r="J8">
-        <v>0.03149587557635405</v>
+        <v>0.02154504994045112</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.5017510000000001</v>
+        <v>0.5017509999999999</v>
       </c>
       <c r="N8">
         <v>1.505253</v>
       </c>
       <c r="O8">
-        <v>0.3003420930026069</v>
+        <v>0.2637844284870492</v>
       </c>
       <c r="P8">
-        <v>0.3159842693572386</v>
+        <v>0.2891724372966287</v>
       </c>
       <c r="Q8">
-        <v>0.4618843742950001</v>
+        <v>0.461884374295</v>
       </c>
       <c r="R8">
         <v>4.156959368655</v>
       </c>
       <c r="S8">
-        <v>0.00686241847100282</v>
+        <v>0.003991289327243497</v>
       </c>
       <c r="T8">
-        <v>0.009952201231760729</v>
+        <v>0.006230234602957835</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>2.761635</v>
       </c>
       <c r="I9">
-        <v>0.02284867366541012</v>
+        <v>0.01513087542784753</v>
       </c>
       <c r="J9">
-        <v>0.03149587557635405</v>
+        <v>0.02154504994045112</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.203121</v>
+        <v>0.14649</v>
       </c>
       <c r="N9">
-        <v>0.609363</v>
+        <v>0.43947</v>
       </c>
       <c r="O9">
-        <v>0.1215857791469922</v>
+        <v>0.0770138593227873</v>
       </c>
       <c r="P9">
-        <v>0.1279181123228686</v>
+        <v>0.08442608054509737</v>
       </c>
       <c r="Q9">
-        <v>0.186982020945</v>
+        <v>0.13485063705</v>
       </c>
       <c r="R9">
-        <v>1.682838188505</v>
+        <v>1.21365573345</v>
       </c>
       <c r="S9">
-        <v>0.002778073790084252</v>
+        <v>0.001165287111630869</v>
       </c>
       <c r="T9">
-        <v>0.004028892949683152</v>
+        <v>0.001818964121620671</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>2.761635</v>
       </c>
       <c r="I10">
-        <v>0.02284867366541012</v>
+        <v>0.01513087542784753</v>
       </c>
       <c r="J10">
-        <v>0.03149587557635405</v>
+        <v>0.02154504994045112</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.248099</v>
+        <v>0.5009935</v>
       </c>
       <c r="N10">
-        <v>0.496198</v>
+        <v>1.001987</v>
       </c>
       <c r="O10">
-        <v>0.1485090671106859</v>
+        <v>0.2633861897100883</v>
       </c>
       <c r="P10">
-        <v>0.1041623982722659</v>
+        <v>0.1924905799420676</v>
       </c>
       <c r="Q10">
-        <v>0.228386293955</v>
+        <v>0.4611870614575</v>
       </c>
       <c r="R10">
-        <v>1.37031776373</v>
+        <v>2.767122368745</v>
       </c>
       <c r="S10">
-        <v>0.003393235210766552</v>
+        <v>0.003985263625918763</v>
       </c>
       <c r="T10">
-        <v>0.003280685935717922</v>
+        <v>0.004147219157918245</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>2.761635</v>
       </c>
       <c r="I11">
-        <v>0.02284867366541012</v>
+        <v>0.01513087542784753</v>
       </c>
       <c r="J11">
-        <v>0.03149587557635405</v>
+        <v>0.02154504994045112</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3879516666666666</v>
+        <v>0.6733020000000001</v>
       </c>
       <c r="N11">
-        <v>1.163855</v>
+        <v>2.019906</v>
       </c>
       <c r="O11">
-        <v>0.2322231855053928</v>
+        <v>0.3539735511622045</v>
       </c>
       <c r="P11">
-        <v>0.2443176474737262</v>
+        <v>0.3880418382358874</v>
       </c>
       <c r="Q11">
-        <v>0.3571269669916667</v>
+        <v>0.6198047895900001</v>
       </c>
       <c r="R11">
-        <v>3.214142702925</v>
+        <v>5.57824310631</v>
       </c>
       <c r="S11">
-        <v>0.005305991783154716</v>
+        <v>0.005355929707388131</v>
       </c>
       <c r="T11">
-        <v>0.007694998225940012</v>
+        <v>0.008360380783776647</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7249216666666666</v>
+        <v>0.7800786666666667</v>
       </c>
       <c r="H12">
-        <v>2.174765</v>
+        <v>2.340236</v>
       </c>
       <c r="I12">
-        <v>0.01799314383832607</v>
+        <v>0.0128220490353592</v>
       </c>
       <c r="J12">
-        <v>0.02480274469573626</v>
+        <v>0.01825748206857226</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.3296756666666666</v>
+        <v>0.07958866666666667</v>
       </c>
       <c r="N12">
-        <v>0.989027</v>
+        <v>0.238766</v>
       </c>
       <c r="O12">
-        <v>0.1973398752343222</v>
+        <v>0.04184197131787069</v>
       </c>
       <c r="P12">
-        <v>0.2076175725739006</v>
+        <v>0.04586906398031883</v>
       </c>
       <c r="Q12">
-        <v>0.2389890337394444</v>
+        <v>0.06208542097511111</v>
       </c>
       <c r="R12">
-        <v>2.150901303655</v>
+        <v>0.558768788776</v>
       </c>
       <c r="S12">
-        <v>0.00355076476012848</v>
+        <v>0.000536499807973831</v>
       </c>
       <c r="T12">
-        <v>0.005149485646898952</v>
+        <v>0.0008374536131228648</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7249216666666666</v>
+        <v>0.7800786666666667</v>
       </c>
       <c r="H13">
-        <v>2.174765</v>
+        <v>2.340236</v>
       </c>
       <c r="I13">
-        <v>0.01799314383832607</v>
+        <v>0.0128220490353592</v>
       </c>
       <c r="J13">
-        <v>0.02480274469573626</v>
+        <v>0.01825748206857226</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.5017510000000001</v>
+        <v>0.5017509999999999</v>
       </c>
       <c r="N13">
         <v>1.505253</v>
       </c>
       <c r="O13">
-        <v>0.3003420930026069</v>
+        <v>0.2637844284870492</v>
       </c>
       <c r="P13">
-        <v>0.3159842693572386</v>
+        <v>0.2891724372966287</v>
       </c>
       <c r="Q13">
-        <v>0.3637301711716667</v>
+        <v>0.3914052510786666</v>
       </c>
       <c r="R13">
-        <v>3.273571540545</v>
+        <v>3.522647259708</v>
       </c>
       <c r="S13">
-        <v>0.005404098480099812</v>
+        <v>0.003382256876825146</v>
       </c>
       <c r="T13">
-        <v>0.007837277160736348</v>
+        <v>0.005279560588668536</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7249216666666666</v>
+        <v>0.7800786666666667</v>
       </c>
       <c r="H14">
-        <v>2.174765</v>
+        <v>2.340236</v>
       </c>
       <c r="I14">
-        <v>0.01799314383832607</v>
+        <v>0.0128220490353592</v>
       </c>
       <c r="J14">
-        <v>0.02480274469573626</v>
+        <v>0.01825748206857226</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.203121</v>
+        <v>0.14649</v>
       </c>
       <c r="N14">
-        <v>0.609363</v>
+        <v>0.43947</v>
       </c>
       <c r="O14">
-        <v>0.1215857791469922</v>
+        <v>0.0770138593227873</v>
       </c>
       <c r="P14">
-        <v>0.1279181123228686</v>
+        <v>0.08442608054509737</v>
       </c>
       <c r="Q14">
-        <v>0.147246813855</v>
+        <v>0.11427372388</v>
       </c>
       <c r="R14">
-        <v>1.325221324695</v>
+        <v>1.02846351492</v>
       </c>
       <c r="S14">
-        <v>0.002187710412886778</v>
+        <v>0.0009874754806390336</v>
       </c>
       <c r="T14">
-        <v>0.003172720281904625</v>
+        <v>0.001541407651671953</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7249216666666666</v>
+        <v>0.7800786666666667</v>
       </c>
       <c r="H15">
-        <v>2.174765</v>
+        <v>2.340236</v>
       </c>
       <c r="I15">
-        <v>0.01799314383832607</v>
+        <v>0.0128220490353592</v>
       </c>
       <c r="J15">
-        <v>0.02480274469573626</v>
+        <v>0.01825748206857226</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.248099</v>
+        <v>0.5009935</v>
       </c>
       <c r="N15">
-        <v>0.496198</v>
+        <v>1.001987</v>
       </c>
       <c r="O15">
-        <v>0.1485090671106859</v>
+        <v>0.2633861897100883</v>
       </c>
       <c r="P15">
-        <v>0.1041623982722659</v>
+        <v>0.1924905799420676</v>
       </c>
       <c r="Q15">
-        <v>0.1798523405783333</v>
+        <v>0.3908143414886667</v>
       </c>
       <c r="R15">
-        <v>1.07911404347</v>
+        <v>2.344886048932</v>
       </c>
       <c r="S15">
-        <v>0.00267214500581819</v>
+        <v>0.003377150639699172</v>
       </c>
       <c r="T15">
-        <v>0.002583513371242611</v>
+        <v>0.003514393311661375</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7249216666666666</v>
+        <v>0.7800786666666667</v>
       </c>
       <c r="H16">
-        <v>2.174765</v>
+        <v>2.340236</v>
       </c>
       <c r="I16">
-        <v>0.01799314383832607</v>
+        <v>0.0128220490353592</v>
       </c>
       <c r="J16">
-        <v>0.02480274469573626</v>
+        <v>0.01825748206857226</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3879516666666666</v>
+        <v>0.6733020000000001</v>
       </c>
       <c r="N16">
-        <v>1.163855</v>
+        <v>2.019906</v>
       </c>
       <c r="O16">
-        <v>0.2322231855053928</v>
+        <v>0.3539735511622045</v>
       </c>
       <c r="P16">
-        <v>0.2443176474737262</v>
+        <v>0.3880418382358874</v>
       </c>
       <c r="Q16">
-        <v>0.2812345687861111</v>
+        <v>0.5252285264240001</v>
       </c>
       <c r="R16">
-        <v>2.531111119074999</v>
+        <v>4.727056737816</v>
       </c>
       <c r="S16">
-        <v>0.00417842517939281</v>
+        <v>0.004538666230222014</v>
       </c>
       <c r="T16">
-        <v>0.006059748234953725</v>
+        <v>0.007084666903447532</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.1838825</v>
+        <v>54.336979</v>
       </c>
       <c r="H17">
-        <v>66.36776499999999</v>
+        <v>108.673958</v>
       </c>
       <c r="I17">
-        <v>0.8236508831114323</v>
+        <v>0.8931296790211963</v>
       </c>
       <c r="J17">
-        <v>0.756910623134739</v>
+        <v>0.8478259626404239</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.3296756666666666</v>
+        <v>0.07958866666666667</v>
       </c>
       <c r="N17">
-        <v>0.989027</v>
+        <v>0.238766</v>
       </c>
       <c r="O17">
-        <v>0.1973398752343222</v>
+        <v>0.04184197131787069</v>
       </c>
       <c r="P17">
-        <v>0.2076175725739006</v>
+        <v>0.04586906398031883</v>
       </c>
       <c r="Q17">
-        <v>10.93991858577583</v>
+        <v>4.324607709304667</v>
       </c>
       <c r="R17">
-        <v>65.63951151465498</v>
+        <v>25.947646255828</v>
       </c>
       <c r="S17">
-        <v>0.1625391625098493</v>
+        <v>0.03737030641274396</v>
       </c>
       <c r="T17">
-        <v>0.157147946230633</v>
+        <v>0.038888983324529</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.1838825</v>
+        <v>54.336979</v>
       </c>
       <c r="H18">
-        <v>66.36776499999999</v>
+        <v>108.673958</v>
       </c>
       <c r="I18">
-        <v>0.8236508831114323</v>
+        <v>0.8931296790211963</v>
       </c>
       <c r="J18">
-        <v>0.756910623134739</v>
+        <v>0.8478259626404239</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1550,28 +1550,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.5017510000000001</v>
+        <v>0.5017509999999999</v>
       </c>
       <c r="N18">
         <v>1.505253</v>
       </c>
       <c r="O18">
-        <v>0.3003420930026069</v>
+        <v>0.2637844284870492</v>
       </c>
       <c r="P18">
-        <v>0.3159842693572386</v>
+        <v>0.2891724372966287</v>
       </c>
       <c r="Q18">
-        <v>16.6500462282575</v>
+        <v>27.263633550229</v>
       </c>
       <c r="R18">
-        <v>99.90027736954499</v>
+        <v>163.581801301374</v>
       </c>
       <c r="S18">
-        <v>0.2473770301371331</v>
+        <v>0.235593701945428</v>
       </c>
       <c r="T18">
-        <v>0.2391718502199627</v>
+        <v>0.2451679000200919</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.1838825</v>
+        <v>54.336979</v>
       </c>
       <c r="H19">
-        <v>66.36776499999999</v>
+        <v>108.673958</v>
       </c>
       <c r="I19">
-        <v>0.8236508831114323</v>
+        <v>0.8931296790211963</v>
       </c>
       <c r="J19">
-        <v>0.756910623134739</v>
+        <v>0.8478259626404239</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.203121</v>
+        <v>0.14649</v>
       </c>
       <c r="N19">
-        <v>0.609363</v>
+        <v>0.43947</v>
       </c>
       <c r="O19">
-        <v>0.1215857791469922</v>
+        <v>0.0770138593227873</v>
       </c>
       <c r="P19">
-        <v>0.1279181123228686</v>
+        <v>0.08442608054509737</v>
       </c>
       <c r="Q19">
-        <v>6.740343397282499</v>
+        <v>7.95982405371</v>
       </c>
       <c r="R19">
-        <v>40.44206038369499</v>
+        <v>47.75894432226</v>
       </c>
       <c r="S19">
-        <v>0.1001442343682117</v>
+        <v>0.06878336345714459</v>
       </c>
       <c r="T19">
-        <v>0.09682257810852202</v>
+        <v>0.07157862301010513</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.1838825</v>
+        <v>54.336979</v>
       </c>
       <c r="H20">
-        <v>66.36776499999999</v>
+        <v>108.673958</v>
       </c>
       <c r="I20">
-        <v>0.8236508831114323</v>
+        <v>0.8931296790211963</v>
       </c>
       <c r="J20">
-        <v>0.756910623134739</v>
+        <v>0.8478259626404239</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.248099</v>
+        <v>0.5009935</v>
       </c>
       <c r="N20">
-        <v>0.496198</v>
+        <v>1.001987</v>
       </c>
       <c r="O20">
-        <v>0.1485090671106859</v>
+        <v>0.2633861897100883</v>
       </c>
       <c r="P20">
-        <v>0.1041623982722659</v>
+        <v>0.1924905799420676</v>
       </c>
       <c r="Q20">
-        <v>8.232888064367499</v>
+        <v>27.2224732886365</v>
       </c>
       <c r="R20">
-        <v>32.93155225747</v>
+        <v>108.889893154546</v>
       </c>
       <c r="S20">
-        <v>0.1223196242757714</v>
+        <v>0.2352380230743871</v>
       </c>
       <c r="T20">
-        <v>0.07884162578346963</v>
+        <v>0.163198511238597</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.1838825</v>
+        <v>54.336979</v>
       </c>
       <c r="H21">
-        <v>66.36776499999999</v>
+        <v>108.673958</v>
       </c>
       <c r="I21">
-        <v>0.8236508831114323</v>
+        <v>0.8931296790211963</v>
       </c>
       <c r="J21">
-        <v>0.756910623134739</v>
+        <v>0.8478259626404239</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.3879516666666666</v>
+        <v>0.6733020000000001</v>
       </c>
       <c r="N21">
-        <v>1.163855</v>
+        <v>2.019906</v>
       </c>
       <c r="O21">
-        <v>0.2322231855053928</v>
+        <v>0.3539735511622045</v>
       </c>
       <c r="P21">
-        <v>0.2443176474737262</v>
+        <v>0.3880418382358874</v>
       </c>
       <c r="Q21">
-        <v>12.87374252234583</v>
+        <v>36.585196634658</v>
       </c>
       <c r="R21">
-        <v>77.24245513407499</v>
+        <v>219.511179807948</v>
       </c>
       <c r="S21">
-        <v>0.1912708318204667</v>
+        <v>0.3161442841314928</v>
       </c>
       <c r="T21">
-        <v>0.1849266227921516</v>
+        <v>0.3289919450471009</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.734263</v>
+        <v>0.9523303333333334</v>
       </c>
       <c r="H22">
-        <v>2.202789</v>
+        <v>2.856991</v>
       </c>
       <c r="I22">
-        <v>0.01822500330954492</v>
+        <v>0.01565332671387839</v>
       </c>
       <c r="J22">
-        <v>0.02512235261537508</v>
+        <v>0.0222889751087379</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.3296756666666666</v>
+        <v>0.07958866666666667</v>
       </c>
       <c r="N22">
-        <v>0.989027</v>
+        <v>0.238766</v>
       </c>
       <c r="O22">
-        <v>0.1973398752343222</v>
+        <v>0.04184197131787069</v>
       </c>
       <c r="P22">
-        <v>0.2076175725739006</v>
+        <v>0.04586906398031883</v>
       </c>
       <c r="Q22">
-        <v>0.2420686440336667</v>
+        <v>0.07579470145622223</v>
       </c>
       <c r="R22">
-        <v>2.178617796303</v>
+        <v>0.6821523131060001</v>
       </c>
       <c r="S22">
-        <v>0.003596519879250703</v>
+        <v>0.0006549660473913586</v>
       </c>
       <c r="T22">
-        <v>0.005215841867349758</v>
+        <v>0.001022374425318432</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.734263</v>
+        <v>0.9523303333333334</v>
       </c>
       <c r="H23">
-        <v>2.202789</v>
+        <v>2.856991</v>
       </c>
       <c r="I23">
-        <v>0.01822500330954492</v>
+        <v>0.01565332671387839</v>
       </c>
       <c r="J23">
-        <v>0.02512235261537508</v>
+        <v>0.0222889751087379</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1860,28 +1860,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.5017510000000001</v>
+        <v>0.5017509999999999</v>
       </c>
       <c r="N23">
         <v>1.505253</v>
       </c>
       <c r="O23">
-        <v>0.3003420930026069</v>
+        <v>0.2637844284870492</v>
       </c>
       <c r="P23">
-        <v>0.3159842693572386</v>
+        <v>0.2891724372966287</v>
       </c>
       <c r="Q23">
-        <v>0.368417194513</v>
+        <v>0.4778326970803333</v>
       </c>
       <c r="R23">
-        <v>3.315754750617001</v>
+        <v>4.300494273723</v>
       </c>
       <c r="S23">
-        <v>0.005473735638968158</v>
+        <v>0.004129103841141472</v>
       </c>
       <c r="T23">
-        <v>0.007938268235704208</v>
+        <v>0.006445357257037628</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.734263</v>
+        <v>0.9523303333333334</v>
       </c>
       <c r="H24">
-        <v>2.202789</v>
+        <v>2.856991</v>
       </c>
       <c r="I24">
-        <v>0.01822500330954492</v>
+        <v>0.01565332671387839</v>
       </c>
       <c r="J24">
-        <v>0.02512235261537508</v>
+        <v>0.0222889751087379</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.203121</v>
+        <v>0.14649</v>
       </c>
       <c r="N24">
-        <v>0.609363</v>
+        <v>0.43947</v>
       </c>
       <c r="O24">
-        <v>0.1215857791469922</v>
+        <v>0.0770138593227873</v>
       </c>
       <c r="P24">
-        <v>0.1279181123228686</v>
+        <v>0.08442608054509737</v>
       </c>
       <c r="Q24">
-        <v>0.149144234823</v>
+        <v>0.13950687053</v>
       </c>
       <c r="R24">
-        <v>1.342298113407</v>
+        <v>1.25556183477</v>
       </c>
       <c r="S24">
-        <v>0.002215901227347531</v>
+        <v>0.001205523101476259</v>
       </c>
       <c r="T24">
-        <v>0.003213603923668262</v>
+        <v>0.001881770807797976</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.734263</v>
+        <v>0.9523303333333334</v>
       </c>
       <c r="H25">
-        <v>2.202789</v>
+        <v>2.856991</v>
       </c>
       <c r="I25">
-        <v>0.01822500330954492</v>
+        <v>0.01565332671387839</v>
       </c>
       <c r="J25">
-        <v>0.02512235261537508</v>
+        <v>0.0222889751087379</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.248099</v>
+        <v>0.5009935</v>
       </c>
       <c r="N25">
-        <v>0.496198</v>
+        <v>1.001987</v>
       </c>
       <c r="O25">
-        <v>0.1485090671106859</v>
+        <v>0.2633861897100883</v>
       </c>
       <c r="P25">
-        <v>0.1041623982722659</v>
+        <v>0.1924905799420676</v>
       </c>
       <c r="Q25">
-        <v>0.182169916037</v>
+        <v>0.4771113068528333</v>
       </c>
       <c r="R25">
-        <v>1.093019496222</v>
+        <v>2.862667841117</v>
       </c>
       <c r="S25">
-        <v>0.002706578239589678</v>
+        <v>0.004122870079455567</v>
       </c>
       <c r="T25">
-        <v>0.002616804498659</v>
+        <v>0.004290417744995268</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.734263</v>
+        <v>0.9523303333333334</v>
       </c>
       <c r="H26">
-        <v>2.202789</v>
+        <v>2.856991</v>
       </c>
       <c r="I26">
-        <v>0.01822500330954492</v>
+        <v>0.01565332671387839</v>
       </c>
       <c r="J26">
-        <v>0.02512235261537508</v>
+        <v>0.0222889751087379</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.3879516666666666</v>
+        <v>0.6733020000000001</v>
       </c>
       <c r="N26">
-        <v>1.163855</v>
+        <v>2.019906</v>
       </c>
       <c r="O26">
-        <v>0.2322231855053928</v>
+        <v>0.3539735511622045</v>
       </c>
       <c r="P26">
-        <v>0.2443176474737262</v>
+        <v>0.3880418382358874</v>
       </c>
       <c r="Q26">
-        <v>0.2848585546216666</v>
+        <v>0.6412059180940001</v>
       </c>
       <c r="R26">
-        <v>2.563726991595</v>
+        <v>5.770853262846001</v>
       </c>
       <c r="S26">
-        <v>0.004232268324388846</v>
+        <v>0.005540863644413735</v>
       </c>
       <c r="T26">
-        <v>0.006137834089993854</v>
+        <v>0.008649054873588592</v>
       </c>
     </row>
   </sheetData>
